--- a/regular_model_accuracies.xlsx
+++ b/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8786885245901639</v>
+        <v>0.9639344262295082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7901639344262295</v>
+        <v>0.8622950819672132</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.9475409836065574</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7967213114754098</v>
+        <v>0.8852459016393442</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.898360655737705</v>
+        <v>0.9606557377049181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8295081967213115</v>
+        <v>0.8622950819672132</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.9573770491803278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.819672131147541</v>
+        <v>0.8786885245901639</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.898360655737705</v>
+        <v>0.9606557377049181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8295081967213115</v>
+        <v>0.8688524590163934</v>
       </c>
     </row>
   </sheetData>

--- a/regular_model_accuracies.xlsx
+++ b/regular_model_accuracies.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9639344262295082</v>
+        <v>0.9609120521172638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8622950819672132</v>
+        <v>0.8664495114006515</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9475409836065574</v>
+        <v>0.9609120521172638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.8859934853420195</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9606557377049181</v>
+        <v>0.9739413680781759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8622950819672132</v>
+        <v>0.8599348534201955</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9573770491803278</v>
+        <v>0.9674267100977199</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8786885245901639</v>
+        <v>0.8827361563517915</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9606557377049181</v>
+        <v>0.9641693811074918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.8566775244299675</v>
       </c>
     </row>
   </sheetData>
